--- a/horizontal-lc.xlsx
+++ b/horizontal-lc.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
-    <t xml:space="preserve">新型点击手势评估问卷</t>
+    <t>新型点击手势评估问卷</t>
   </si>
   <si>
     <r>
@@ -30,9 +25,9 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">欢迎填写清华大学科研项目《任意表面点击技术》的“新型点击手势评估问卷”。点击手势，是指您在点击手机或平板电脑的屏幕时，手的姿态。食指点击是最常见的点击手势，而更丰富的手势将给我们的日常交互带来遍历，例如，在华为手机中，指关节连续叩击两次可快速打开拍照功能。
+        <charset val="134"/>
+      </rPr>
+      <t>欢迎填写清华大学科研项目《任意表面点击技术》的“新型点击手势评估问卷”。点击手势，是指您在点击手机或平板电脑的屏幕时，手的姿态。食指点击是最常见的点击手势，而更丰富的手势将给我们的日常交互带来遍历，例如，在华为手机中，指关节连续叩击两次可快速打开拍照功能。
 在本问卷中，我们提出了一系列新型的点击手势，您的任务是针对每一个手势分别进行多个角度的评估。本问卷预计耗时</t>
     </r>
     <r>
@@ -40,49 +35,46 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">20-30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">分钟，完成问卷之后您将收到</t>
+      <t>20-30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟，完成问卷之后您将收到</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">元人民币的报酬。
 </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">您的评分对我们后续实验设计十分重要，请耐心仔细填写，谢谢！</t>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您的评分对我们后续实验设计十分重要，请耐心仔细填写，谢谢！</t>
     </r>
   </si>
   <si>
@@ -91,44 +83,43 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">个人信息</t>
+        <charset val="134"/>
+      </rPr>
+      <t>个人信息</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">姓名</t>
+    <t>姓名</t>
   </si>
   <si>
-    <t xml:space="preserve">梁宸</t>
+    <t>梁宸</t>
   </si>
   <si>
-    <t xml:space="preserve">年龄</t>
+    <t>年龄</t>
   </si>
   <si>
-    <t xml:space="preserve">性别</t>
+    <t>性别</t>
   </si>
   <si>
-    <t xml:space="preserve">男</t>
+    <t>男</t>
   </si>
   <si>
-    <t xml:space="preserve">在日常生活中，你能记住几个手势？</t>
+    <t>在日常生活中，你能记住几个手势？</t>
   </si>
   <si>
-    <t xml:space="preserve">邮箱</t>
+    <t>邮箱</t>
   </si>
   <si>
-    <t xml:space="preserve">lliangchenc@163.com</t>
+    <t>lliangchenc@163.com</t>
   </si>
   <si>
     <r>
@@ -136,7 +127,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">左撇子□ </t>
     </r>
@@ -145,35 +136,31 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">右撇子 □</t>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>右撇子 □</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">备注（填写前请务必阅读）</t>
+    <t>备注（填写前请务必阅读）</t>
   </si>
   <si>
     <r>
@@ -181,7 +168,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1. </t>
@@ -191,26 +177,25 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">在给一个点击手势评分之前，建议您</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在给一个点击手势评分之前，建议您</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">先尝试该手势</t>
+        <charset val="134"/>
+      </rPr>
+      <t>先尝试该手势</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">，因为有的手势实际上难以达成。
 </t>
@@ -220,7 +205,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2. </t>
@@ -230,89 +214,79 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">所有打分均为</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有打分均为</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">1 - 7</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>1 - 7</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">，</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">表示完全不同意，</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示完全不同意，</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="0"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">7</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">表示完全同意</t>
+        <charset val="134"/>
+      </rPr>
+      <t>表示完全同意</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">。
 </t>
@@ -322,7 +296,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">3. </t>
@@ -332,13 +305,13 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">对于您提出的各种可能的应用场景，请用文字简单描述即可，不同咬合操作之间的应用场景可以重复。</t>
+        <charset val="134"/>
+      </rPr>
+      <t>对于您提出的各种可能的应用场景，请用文字简单描述即可，不同咬合操作之间的应用场景可以重复。</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">点击手势说明</t>
+    <t>点击手势说明</t>
   </si>
   <si>
     <r>
@@ -346,66 +319,63 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">如下图所示：每个点击手势由三个因素组成，使用某</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">手指</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">的某</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">部位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">，点击时其余手指是</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">握拳或是张开</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">。</t>
+        <charset val="134"/>
+      </rPr>
+      <t>如下图所示：每个点击手势由三个因素组成，使用某</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手指</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的某</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，点击时其余手指是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>握拳或是张开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
     </r>
   </si>
   <si>
@@ -414,7 +384,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">在后续表格中，每一组题目表示一个手势，如“双指指尖侧面点击，其余手指握拳”对应右图中的手势。
 每个手势对应三个问题：
@@ -425,84 +395,79 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">我觉得它操作简单：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">做这个手势的物理和心理难度较低（</t>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我觉得它操作简单：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>做这个手势的物理和心理难度较低（</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1-7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">，</t>
+      <t>1-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">不同意，</t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不同意，</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">同意）。
 </t>
@@ -512,27 +477,25 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2. </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">我觉得它容易记忆：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我觉得它容易记忆：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">与日常手势契合，容易记忆。
 </t>
@@ -542,48 +505,46 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3. </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">我愿意使用它。</t>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我愿意使用它。</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">其余手指握拳</t>
+    <t>其余手指握拳</t>
   </si>
   <si>
-    <t xml:space="preserve">手指</t>
+    <t>手指</t>
   </si>
   <si>
-    <t xml:space="preserve">点击部位</t>
+    <t>点击部位</t>
   </si>
   <si>
-    <t xml:space="preserve">指腹</t>
+    <t>指腹</t>
   </si>
   <si>
-    <t xml:space="preserve">指尖</t>
+    <t>指尖</t>
   </si>
   <si>
-    <t xml:space="preserve">指尖侧面</t>
+    <t>指尖侧面</t>
   </si>
   <si>
-    <t xml:space="preserve">指关节</t>
+    <t>指关节</t>
   </si>
   <si>
-    <t xml:space="preserve">指甲</t>
+    <t>指甲</t>
   </si>
   <si>
-    <t xml:space="preserve">拇指</t>
+    <t>拇指</t>
   </si>
   <si>
     <r>
@@ -591,88 +552,85 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">我觉得它操作简单（</t>
+        <charset val="134"/>
+      </rPr>
+      <t>我觉得它操作简单（</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1-7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">，</t>
+      <t>1-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">不同意，</t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不同意，</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">同意）</t>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同意）</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">我觉得它操作简单</t>
+    <t>我觉得它操作简单</t>
   </si>
   <si>
-    <t xml:space="preserve">我觉得它容易记忆</t>
+    <t>我觉得它容易记忆</t>
   </si>
   <si>
-    <t xml:space="preserve">我愿意使用它</t>
+    <t>我愿意使用它</t>
   </si>
   <si>
-    <t xml:space="preserve">食指</t>
+    <t>食指</t>
   </si>
   <si>
-    <t xml:space="preserve">中指</t>
+    <t>中指</t>
   </si>
   <si>
-    <t xml:space="preserve">无名指</t>
+    <t>无名指</t>
   </si>
   <si>
-    <t xml:space="preserve">尾指</t>
+    <t>尾指</t>
   </si>
   <si>
     <r>
@@ -680,28 +638,27 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">双指（食指</t>
+        <charset val="134"/>
+      </rPr>
+      <t>双指（食指</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">中指）</t>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中指）</t>
     </r>
   </si>
   <si>
@@ -710,492 +667,1134 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">三指（食指</t>
+        <charset val="134"/>
+      </rPr>
+      <t>三指（食指</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">无名指）</t>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无名指）</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">其余手指张开</t>
+    <t>其余手指张开</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF0563C1"/>
       <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="等线"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="0"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Noto Sans CJK SC Regular"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="0"/>
       <charset val="136"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="24">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000563C1"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1211,19 +1810,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="图片 104" descr=""/>
+        <xdr:cNvPr id="2" name="图片 104"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1">
           <a:alphaModFix amt="37000"/>
         </a:blip>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8364600" y="8503200"/>
-          <a:ext cx="1548720" cy="967680"/>
+          <a:off x="6540500" y="8453755"/>
+          <a:ext cx="1548765" cy="967740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1243,24 +1844,26 @@
       <xdr:rowOff>69840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>641520</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>117360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="图片 1" descr=""/>
+        <xdr:cNvPr id="3" name="图片 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="826920" y="4638600"/>
-          <a:ext cx="14708880" cy="3717720"/>
+          <a:off x="647065" y="4589145"/>
+          <a:ext cx="11445875" cy="3717925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1275,34 +1878,287 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:L89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L89" activeCellId="0" sqref="L89"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="35.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="35.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="8.83"/>
+    <col min="1" max="1" width="8.83333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.8333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.50925925925926" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.8333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.1574074074074" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.1574074074074" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.1574074074074" style="1" customWidth="1"/>
+    <col min="12" max="1025" width="8.83333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="21" spans="2:8">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1313,8 +2169,8 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" ht="14.55"/>
+    <row r="4" ht="66" customHeight="1" spans="2:8">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1325,7 +2181,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" ht="30" customHeight="1" spans="2:8">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1336,7 +2192,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" ht="20.5" customHeight="1" spans="2:8">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1346,7 +2202,7 @@
       <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="6">
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -1357,11 +2213,11 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="28.25" customHeight="1" spans="2:8">
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="9">
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1376,7 +2232,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="58" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="58" customHeight="1" spans="2:8">
       <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
@@ -1389,7 +2245,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" ht="15" customHeight="1" spans="2:8">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1398,8 +2254,8 @@
       <c r="G9" s="15"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" ht="17" customHeight="1"/>
+    <row r="12" ht="24" customHeight="1" spans="2:8">
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
@@ -1410,7 +2266,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" ht="17" customHeight="1" spans="2:8">
       <c r="B13" s="17" t="s">
         <v>15</v>
       </c>
@@ -1421,7 +2277,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" ht="17" customHeight="1" spans="2:8">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -1430,7 +2286,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" ht="17" customHeight="1" spans="2:8">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -1439,7 +2295,7 @@
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" ht="17" customHeight="1" spans="2:8">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -1448,7 +2304,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" ht="17" customHeight="1" spans="2:8">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -1457,7 +2313,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" ht="17" customHeight="1" spans="2:8">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -1466,7 +2322,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" ht="17" customHeight="1" spans="2:8">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -1475,7 +2331,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" ht="17" customHeight="1" spans="2:8">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -1484,7 +2340,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" ht="17" customHeight="1" spans="2:8">
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -1493,7 +2349,7 @@
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" ht="17" customHeight="1" spans="2:8">
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -1502,7 +2358,7 @@
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" ht="17" customHeight="1" spans="2:8">
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -1511,7 +2367,7 @@
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" ht="17" customHeight="1" spans="2:8">
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -1520,7 +2376,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" ht="17" customHeight="1" spans="2:8">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -1529,7 +2385,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" ht="17" customHeight="1" spans="2:8">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -1538,7 +2394,7 @@
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" ht="17" customHeight="1" spans="2:8">
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -1547,7 +2403,7 @@
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" ht="17" customHeight="1" spans="2:8">
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -1556,7 +2412,7 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" ht="17" customHeight="1" spans="2:8">
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -1565,7 +2421,7 @@
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" ht="17" customHeight="1" spans="2:8">
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -1574,7 +2430,7 @@
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" ht="17" customHeight="1" spans="2:8">
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -1583,7 +2439,7 @@
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" ht="17" customHeight="1" spans="2:8">
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -1592,7 +2448,7 @@
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" ht="17" customHeight="1" spans="2:8">
       <c r="B33" s="19" t="s">
         <v>16</v>
       </c>
@@ -1603,7 +2459,7 @@
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
     </row>
-    <row r="34" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" ht="17" customHeight="1" spans="2:8">
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -1612,7 +2468,7 @@
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
     </row>
-    <row r="35" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" ht="17" customHeight="1" spans="2:8">
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -1621,7 +2477,7 @@
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
     </row>
-    <row r="36" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" ht="17" customHeight="1" spans="2:8">
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -1630,7 +2486,7 @@
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
     </row>
-    <row r="37" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" ht="17" customHeight="1" spans="2:8">
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
@@ -1639,9 +2495,9 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
     </row>
-    <row r="38" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" ht="17" customHeight="1"/>
+    <row r="39" ht="17" customHeight="1"/>
+    <row r="40" ht="24" customHeight="1" spans="2:12">
       <c r="B40" s="20" t="s">
         <v>17</v>
       </c>
@@ -1656,7 +2512,7 @@
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
     </row>
-    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" ht="24" customHeight="1" spans="2:12">
       <c r="B41" s="20" t="s">
         <v>18</v>
       </c>
@@ -1673,7 +2529,7 @@
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
     </row>
-    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" ht="24" customHeight="1" spans="2:12">
       <c r="B42" s="20"/>
       <c r="C42" s="21" t="s">
         <v>20</v>
@@ -1696,715 +2552,715 @@
       </c>
       <c r="L42" s="21"/>
     </row>
-    <row r="43" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" ht="24" customHeight="1" spans="2:12">
       <c r="B43" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="23" t="n">
+      <c r="D43" s="23">
         <v>4</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="23" t="n">
+      <c r="F43" s="23">
         <v>4</v>
       </c>
       <c r="G43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="23" t="n">
+      <c r="H43" s="23">
         <v>4</v>
       </c>
       <c r="I43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J43" s="23" t="n">
+      <c r="J43" s="23">
         <v>2</v>
       </c>
       <c r="K43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L43" s="23" t="n">
+      <c r="L43" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" ht="24" customHeight="1" spans="2:12">
       <c r="B44" s="21"/>
       <c r="C44" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="25" t="n">
+      <c r="D44" s="25">
         <v>5</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="25" t="n">
+      <c r="F44" s="25">
         <v>5</v>
       </c>
       <c r="G44" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="25" t="n">
+      <c r="H44" s="25">
         <v>5</v>
       </c>
       <c r="I44" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J44" s="25" t="n">
+      <c r="J44" s="25">
         <v>3</v>
       </c>
       <c r="K44" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L44" s="25" t="n">
+      <c r="L44" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" ht="24" customHeight="1" spans="2:12">
       <c r="B45" s="21"/>
       <c r="C45" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="27" t="n">
+      <c r="D45" s="27">
         <v>4</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="27" t="n">
+      <c r="F45" s="27">
         <v>3</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="27" t="n">
+      <c r="H45" s="27">
         <v>4</v>
       </c>
       <c r="I45" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J45" s="27" t="n">
+      <c r="J45" s="27">
         <v>2</v>
       </c>
       <c r="K45" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L45" s="27" t="n">
+      <c r="L45" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" ht="24" customHeight="1" spans="2:12">
       <c r="B46" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="23" t="n">
+      <c r="D46" s="23">
         <v>7</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="23" t="n">
+      <c r="F46" s="23">
         <v>7</v>
       </c>
       <c r="G46" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="23" t="n">
+      <c r="H46" s="23">
         <v>4</v>
       </c>
       <c r="I46" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="23" t="n">
+      <c r="J46" s="23">
         <v>6</v>
       </c>
       <c r="K46" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L46" s="23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L46" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" ht="24" customHeight="1" spans="2:12">
       <c r="B47" s="21"/>
       <c r="C47" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="25" t="n">
+      <c r="D47" s="25">
         <v>7</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="25" t="n">
+      <c r="F47" s="25">
         <v>7</v>
       </c>
       <c r="G47" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="25" t="n">
+      <c r="H47" s="25">
         <v>5</v>
       </c>
       <c r="I47" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J47" s="25" t="n">
+      <c r="J47" s="25">
         <v>7</v>
       </c>
       <c r="K47" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L47" s="25" t="n">
+      <c r="L47" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" ht="24" customHeight="1" spans="2:12">
       <c r="B48" s="21"/>
       <c r="C48" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="27" t="n">
+      <c r="D48" s="27">
         <v>7</v>
       </c>
       <c r="E48" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="27" t="n">
+      <c r="F48" s="27">
         <v>7</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="27" t="n">
+      <c r="H48" s="27">
         <v>4</v>
       </c>
       <c r="I48" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J48" s="27" t="n">
+      <c r="J48" s="27">
         <v>5</v>
       </c>
       <c r="K48" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L48" s="27" t="n">
+      <c r="L48" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" ht="24" customHeight="1" spans="2:12">
       <c r="B49" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="23" t="n">
+      <c r="D49" s="23">
         <v>5</v>
       </c>
       <c r="E49" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="23" t="n">
+      <c r="F49" s="23">
         <v>6</v>
       </c>
       <c r="G49" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="23" t="n">
+      <c r="H49" s="23">
         <v>3</v>
       </c>
       <c r="I49" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J49" s="23" t="n">
+      <c r="J49" s="23">
         <v>7</v>
       </c>
       <c r="K49" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L49" s="23" t="n">
+      <c r="L49" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" ht="24" customHeight="1" spans="2:12">
       <c r="B50" s="21"/>
       <c r="C50" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="25" t="n">
+      <c r="D50" s="25">
         <v>7</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="25" t="n">
+      <c r="F50" s="25">
         <v>7</v>
       </c>
       <c r="G50" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="25" t="n">
+      <c r="H50" s="25">
         <v>4</v>
       </c>
       <c r="I50" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="25" t="n">
+      <c r="J50" s="25">
         <v>7</v>
       </c>
       <c r="K50" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L50" s="25" t="n">
+      <c r="L50" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" ht="24" customHeight="1" spans="2:12">
       <c r="B51" s="21"/>
       <c r="C51" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="27" t="n">
+      <c r="D51" s="27">
         <v>5</v>
       </c>
       <c r="E51" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="27" t="n">
+      <c r="F51" s="27">
         <v>5</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H51" s="27" t="n">
+      <c r="H51" s="27">
         <v>3</v>
       </c>
       <c r="I51" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J51" s="27" t="n">
+      <c r="J51" s="27">
         <v>6</v>
       </c>
       <c r="K51" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L51" s="27" t="n">
+      <c r="L51" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" ht="24" customHeight="1" spans="2:12">
       <c r="B52" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="23" t="n">
+      <c r="D52" s="23">
         <v>3</v>
       </c>
       <c r="E52" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="23" t="n">
+      <c r="F52" s="23">
         <v>4</v>
       </c>
       <c r="G52" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="23" t="n">
+      <c r="H52" s="23">
         <v>2</v>
       </c>
       <c r="I52" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J52" s="23" t="n">
+      <c r="J52" s="23">
         <v>5</v>
       </c>
       <c r="K52" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L52" s="23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L52" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" ht="24" customHeight="1" spans="2:12">
       <c r="B53" s="21"/>
       <c r="C53" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="25" t="n">
+      <c r="D53" s="25">
         <v>5</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="25" t="n">
+      <c r="F53" s="25">
         <v>5</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H53" s="25" t="n">
+      <c r="H53" s="25">
         <v>5</v>
       </c>
       <c r="I53" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="25" t="n">
+      <c r="J53" s="25">
         <v>5</v>
       </c>
       <c r="K53" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L53" s="25" t="n">
+      <c r="L53" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" ht="24" customHeight="1" spans="2:12">
       <c r="B54" s="21"/>
       <c r="C54" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="27" t="n">
+      <c r="D54" s="27">
         <v>3</v>
       </c>
       <c r="E54" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="27" t="n">
+      <c r="F54" s="27">
         <v>3</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="27" t="n">
+      <c r="H54" s="27">
         <v>2</v>
       </c>
       <c r="I54" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J54" s="27" t="n">
+      <c r="J54" s="27">
         <v>5</v>
       </c>
       <c r="K54" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L54" s="27" t="n">
+      <c r="L54" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" ht="24" customHeight="1" spans="2:12">
       <c r="B55" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="23" t="n">
+      <c r="D55" s="23">
         <v>5</v>
       </c>
       <c r="E55" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="23" t="n">
+      <c r="F55" s="23">
         <v>6</v>
       </c>
       <c r="G55" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H55" s="23" t="n">
+      <c r="H55" s="23">
         <v>4</v>
       </c>
       <c r="I55" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J55" s="23" t="n">
+      <c r="J55" s="23">
         <v>4</v>
       </c>
       <c r="K55" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L55" s="23" t="n">
+      <c r="L55" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" ht="24" customHeight="1" spans="2:12">
       <c r="B56" s="21"/>
       <c r="C56" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="25" t="n">
+      <c r="D56" s="25">
         <v>6</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="25" t="n">
+      <c r="F56" s="25">
         <v>6</v>
       </c>
       <c r="G56" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H56" s="25" t="n">
+      <c r="H56" s="25">
         <v>5</v>
       </c>
       <c r="I56" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J56" s="25" t="n">
+      <c r="J56" s="25">
         <v>5</v>
       </c>
       <c r="K56" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L56" s="25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L56" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" ht="24" customHeight="1" spans="2:12">
       <c r="B57" s="21"/>
       <c r="C57" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="27" t="n">
+      <c r="D57" s="27">
         <v>5</v>
       </c>
       <c r="E57" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="27" t="n">
+      <c r="F57" s="27">
         <v>5</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H57" s="27" t="n">
+      <c r="H57" s="27">
         <v>4</v>
       </c>
       <c r="I57" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J57" s="27" t="n">
+      <c r="J57" s="27">
         <v>4</v>
       </c>
       <c r="K57" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L57" s="27" t="n">
+      <c r="L57" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" ht="24" customHeight="1" spans="2:12">
       <c r="B58" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C58" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="23" t="n">
+      <c r="D58" s="23">
         <v>6</v>
       </c>
       <c r="E58" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F58" s="23" t="n">
+      <c r="F58" s="23">
         <v>7</v>
       </c>
       <c r="G58" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H58" s="23" t="n">
+      <c r="H58" s="23">
         <v>3</v>
       </c>
       <c r="I58" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J58" s="23" t="n">
+      <c r="J58" s="23">
         <v>4</v>
       </c>
       <c r="K58" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L58" s="23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L58" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" ht="24" customHeight="1" spans="2:12">
       <c r="B59" s="21"/>
       <c r="C59" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="25" t="n">
+      <c r="D59" s="25">
         <v>7</v>
       </c>
       <c r="E59" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="25" t="n">
+      <c r="F59" s="25">
         <v>7</v>
       </c>
       <c r="G59" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H59" s="25" t="n">
+      <c r="H59" s="25">
         <v>6</v>
       </c>
       <c r="I59" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J59" s="25" t="n">
+      <c r="J59" s="25">
         <v>6</v>
       </c>
       <c r="K59" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L59" s="25" t="n">
+      <c r="L59" s="25">
         <v>5</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" ht="24" customHeight="1" spans="2:12">
       <c r="B60" s="21"/>
       <c r="C60" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="27" t="n">
+      <c r="D60" s="27">
         <v>6</v>
       </c>
       <c r="E60" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="27" t="n">
+      <c r="F60" s="27">
         <v>7</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="27" t="n">
+      <c r="H60" s="27">
         <v>3</v>
       </c>
       <c r="I60" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J60" s="27" t="n">
+      <c r="J60" s="27">
         <v>4</v>
       </c>
       <c r="K60" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L60" s="27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L60" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" ht="24" customHeight="1" spans="2:12">
       <c r="B61" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D61" s="23" t="n">
+      <c r="D61" s="23">
         <v>4</v>
       </c>
       <c r="E61" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="23" t="n">
+      <c r="F61" s="23">
         <v>5</v>
       </c>
       <c r="G61" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H61" s="23" t="n">
+      <c r="H61" s="23">
         <v>2</v>
       </c>
       <c r="I61" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J61" s="23" t="n">
+      <c r="J61" s="23">
         <v>3</v>
       </c>
       <c r="K61" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L61" s="23" t="n">
+      <c r="L61" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" ht="24" customHeight="1" spans="2:12">
       <c r="B62" s="28"/>
       <c r="C62" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="25" t="n">
+      <c r="D62" s="25">
         <v>7</v>
       </c>
       <c r="E62" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F62" s="25" t="n">
+      <c r="F62" s="25">
         <v>7</v>
       </c>
       <c r="G62" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="25" t="n">
+      <c r="H62" s="25">
         <v>4</v>
       </c>
       <c r="I62" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J62" s="25" t="n">
+      <c r="J62" s="25">
         <v>5</v>
       </c>
       <c r="K62" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L62" s="25" t="n">
+      <c r="L62" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" ht="24" customHeight="1" spans="2:12">
       <c r="B63" s="28"/>
       <c r="C63" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="27" t="n">
+      <c r="D63" s="27">
         <v>5</v>
       </c>
       <c r="E63" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F63" s="27" t="n">
+      <c r="F63" s="27">
         <v>6</v>
       </c>
       <c r="G63" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="27" t="n">
+      <c r="H63" s="27">
         <v>2</v>
       </c>
       <c r="I63" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J63" s="27" t="n">
+      <c r="J63" s="27">
         <v>2</v>
       </c>
       <c r="K63" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L63" s="27" t="n">
+      <c r="L63" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" ht="14.55"/>
+    <row r="66" ht="24" customHeight="1" spans="2:12">
       <c r="B66" s="20" t="s">
         <v>36</v>
       </c>
@@ -2419,7 +3275,7 @@
       <c r="K66" s="20"/>
       <c r="L66" s="20"/>
     </row>
-    <row r="67" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" ht="24" customHeight="1" spans="2:12">
       <c r="B67" s="20" t="s">
         <v>18</v>
       </c>
@@ -2436,7 +3292,7 @@
       <c r="K67" s="20"/>
       <c r="L67" s="20"/>
     </row>
-    <row r="68" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" ht="24" customHeight="1" spans="2:12">
       <c r="B68" s="20"/>
       <c r="C68" s="21" t="s">
         <v>20</v>
@@ -2459,680 +3315,710 @@
       </c>
       <c r="L68" s="21"/>
     </row>
-    <row r="69" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" ht="24" customHeight="1" spans="2:12">
       <c r="B69" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C69" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D69" s="23" t="n">
+      <c r="D69" s="23">
         <v>4</v>
       </c>
       <c r="E69" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F69" s="23" t="n">
+      <c r="F69" s="23">
         <v>4</v>
       </c>
       <c r="G69" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H69" s="23" t="n">
+      <c r="H69" s="23">
         <v>4</v>
       </c>
       <c r="I69" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J69" s="23" t="n">
+      <c r="J69" s="23">
         <v>2</v>
       </c>
       <c r="K69" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L69" s="23" t="n">
+      <c r="L69" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" ht="24" customHeight="1" spans="2:12">
       <c r="B70" s="28"/>
       <c r="C70" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="25" t="n">
+      <c r="D70" s="25">
         <v>5</v>
       </c>
       <c r="E70" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F70" s="25" t="n">
+      <c r="F70" s="25">
         <v>4</v>
       </c>
       <c r="G70" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H70" s="25" t="n">
+      <c r="H70" s="25">
         <v>5</v>
       </c>
       <c r="I70" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="25" t="n">
+      <c r="J70" s="25">
         <v>3</v>
       </c>
       <c r="K70" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L70" s="25" t="n">
+      <c r="L70" s="25">
         <v>3</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" ht="24" customHeight="1" spans="2:12">
       <c r="B71" s="28"/>
       <c r="C71" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D71" s="27" t="n">
+      <c r="D71" s="27">
         <v>4</v>
       </c>
       <c r="E71" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F71" s="27" t="n">
+      <c r="F71" s="27">
         <v>4</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H71" s="27" t="n">
+      <c r="H71" s="27">
         <v>4</v>
       </c>
       <c r="I71" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J71" s="27" t="n">
+      <c r="J71" s="27">
         <v>2</v>
       </c>
       <c r="K71" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L71" s="27" t="n">
+      <c r="L71" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" ht="24" customHeight="1" spans="2:12">
       <c r="B72" s="28" t="s">
         <v>30</v>
       </c>
       <c r="C72" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="23" t="n">
+      <c r="D72" s="23">
         <v>7</v>
       </c>
       <c r="E72" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F72" s="23" t="n">
+      <c r="F72" s="23">
         <v>7</v>
       </c>
       <c r="G72" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="23" t="n">
+      <c r="H72" s="23">
         <v>2</v>
       </c>
       <c r="I72" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J72" s="23" t="n">
+      <c r="J72" s="23">
         <v>3</v>
       </c>
       <c r="K72" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L72" s="23" t="n">
+      <c r="L72" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" ht="24" customHeight="1" spans="2:12">
       <c r="B73" s="28"/>
       <c r="C73" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="25" t="n">
+      <c r="D73" s="25">
         <v>7</v>
       </c>
       <c r="E73" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F73" s="25" t="n">
+      <c r="F73" s="25">
         <v>7</v>
       </c>
       <c r="G73" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H73" s="25" t="n">
+      <c r="H73" s="25">
         <v>4</v>
       </c>
       <c r="I73" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J73" s="25" t="n">
+      <c r="J73" s="25">
         <v>3</v>
       </c>
       <c r="K73" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L73" s="25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L73" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" ht="24" customHeight="1" spans="2:12">
       <c r="B74" s="28"/>
       <c r="C74" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="27" t="n">
+      <c r="D74" s="27">
         <v>7</v>
       </c>
       <c r="E74" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F74" s="27" t="n">
+      <c r="F74" s="27">
         <v>7</v>
       </c>
       <c r="G74" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="27" t="n">
+      <c r="H74" s="27">
         <v>3</v>
       </c>
       <c r="I74" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J74" s="27" t="n">
+      <c r="J74" s="27">
         <v>3</v>
       </c>
       <c r="K74" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L74" s="27" t="n">
+      <c r="L74" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" ht="24" customHeight="1" spans="2:12">
       <c r="B75" s="28" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="23" t="n">
+      <c r="D75" s="23">
         <v>7</v>
       </c>
       <c r="E75" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F75" s="23" t="n">
+      <c r="F75" s="23">
         <v>7</v>
       </c>
       <c r="G75" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H75" s="23" t="n">
+      <c r="H75" s="23">
         <v>2</v>
       </c>
       <c r="I75" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J75" s="23"/>
+      <c r="J75" s="23">
+        <v>4</v>
+      </c>
       <c r="K75" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L75" s="23" t="n">
+      <c r="L75" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" ht="24" customHeight="1" spans="2:12">
       <c r="B76" s="28"/>
       <c r="C76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="25" t="n">
+      <c r="D76" s="25">
         <v>7</v>
       </c>
       <c r="E76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F76" s="25" t="n">
+      <c r="F76" s="25">
         <v>7</v>
       </c>
       <c r="G76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H76" s="25" t="n">
+      <c r="H76" s="25">
         <v>4</v>
       </c>
       <c r="I76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J76" s="25"/>
+      <c r="J76" s="25">
+        <v>5</v>
+      </c>
       <c r="K76" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L76" s="25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L76" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" ht="24" customHeight="1" spans="2:12">
       <c r="B77" s="28"/>
       <c r="C77" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="27" t="n">
+      <c r="D77" s="27">
         <v>7</v>
       </c>
       <c r="E77" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F77" s="27" t="n">
+      <c r="F77" s="27">
         <v>7</v>
       </c>
       <c r="G77" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H77" s="27" t="n">
+      <c r="H77" s="27">
         <v>3</v>
       </c>
       <c r="I77" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J77" s="27"/>
+      <c r="J77" s="27">
+        <v>4</v>
+      </c>
       <c r="K77" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L77" s="27" t="n">
+      <c r="L77" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" ht="24" customHeight="1" spans="2:12">
       <c r="B78" s="28" t="s">
         <v>32</v>
       </c>
       <c r="C78" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="23" t="n">
+      <c r="D78" s="23">
         <v>6</v>
       </c>
       <c r="E78" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F78" s="23" t="n">
+      <c r="F78" s="23">
         <v>6</v>
       </c>
       <c r="G78" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H78" s="23" t="n">
+      <c r="H78" s="23">
         <v>2</v>
       </c>
       <c r="I78" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J78" s="23"/>
+      <c r="J78" s="23">
+        <v>4</v>
+      </c>
       <c r="K78" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L78" s="23" t="n">
+      <c r="L78" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" ht="24" customHeight="1" spans="2:12">
       <c r="B79" s="28"/>
       <c r="C79" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="25" t="n">
+      <c r="D79" s="25">
         <v>7</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F79" s="25" t="n">
+      <c r="F79" s="25">
         <v>7</v>
       </c>
       <c r="G79" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H79" s="25" t="n">
+      <c r="H79" s="25">
         <v>4</v>
       </c>
       <c r="I79" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J79" s="25"/>
+      <c r="J79" s="25">
+        <v>4</v>
+      </c>
       <c r="K79" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L79" s="25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L79" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" ht="24" customHeight="1" spans="2:12">
       <c r="B80" s="28"/>
       <c r="C80" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D80" s="27" t="n">
+      <c r="D80" s="27">
         <v>6</v>
       </c>
       <c r="E80" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F80" s="27" t="n">
+      <c r="F80" s="27">
         <v>6</v>
       </c>
       <c r="G80" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H80" s="27" t="n">
+      <c r="H80" s="27">
         <v>3</v>
       </c>
       <c r="I80" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J80" s="27"/>
+      <c r="J80" s="27">
+        <v>4</v>
+      </c>
       <c r="K80" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L80" s="27" t="n">
+      <c r="L80" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" ht="24" customHeight="1" spans="2:12">
       <c r="B81" s="28" t="s">
         <v>33</v>
       </c>
       <c r="C81" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="23" t="n">
+      <c r="D81" s="23">
         <v>6</v>
       </c>
       <c r="E81" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F81" s="23" t="n">
+      <c r="F81" s="23">
         <v>6</v>
       </c>
       <c r="G81" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H81" s="23" t="n">
+      <c r="H81" s="23">
         <v>5</v>
       </c>
       <c r="I81" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J81" s="23"/>
+      <c r="J81" s="23">
+        <v>4</v>
+      </c>
       <c r="K81" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L81" s="23" t="n">
+      <c r="L81" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" ht="24" customHeight="1" spans="2:12">
       <c r="B82" s="28"/>
       <c r="C82" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D82" s="25" t="n">
+      <c r="D82" s="25">
         <v>7</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F82" s="25" t="n">
+      <c r="F82" s="25">
         <v>7</v>
       </c>
       <c r="G82" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H82" s="25" t="n">
+      <c r="H82" s="25">
         <v>5</v>
       </c>
       <c r="I82" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J82" s="25"/>
+      <c r="J82" s="25">
+        <v>5</v>
+      </c>
       <c r="K82" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L82" s="25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L82" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" ht="24" customHeight="1" spans="2:12">
       <c r="B83" s="28"/>
       <c r="C83" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D83" s="27" t="n">
+      <c r="D83" s="27">
         <v>6</v>
       </c>
       <c r="E83" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F83" s="27" t="n">
+      <c r="F83" s="27">
         <v>6</v>
       </c>
       <c r="G83" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H83" s="27" t="n">
+      <c r="H83" s="27">
         <v>6</v>
       </c>
       <c r="I83" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J83" s="27"/>
+      <c r="J83" s="27">
+        <v>4</v>
+      </c>
       <c r="K83" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L83" s="27" t="n">
+      <c r="L83" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" ht="24" customHeight="1" spans="2:12">
       <c r="B84" s="28" t="s">
         <v>34</v>
       </c>
       <c r="C84" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="23" t="n">
+      <c r="D84" s="23">
         <v>7</v>
       </c>
       <c r="E84" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F84" s="23" t="n">
+      <c r="F84" s="23">
         <v>7</v>
       </c>
       <c r="G84" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H84" s="23" t="n">
+      <c r="H84" s="23">
         <v>3</v>
       </c>
       <c r="I84" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J84" s="23"/>
+      <c r="J84" s="23">
+        <v>4</v>
+      </c>
       <c r="K84" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L84" s="23" t="n">
+      <c r="L84" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" ht="24" customHeight="1" spans="2:12">
       <c r="B85" s="28"/>
       <c r="C85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="25" t="n">
+      <c r="D85" s="25">
         <v>7</v>
       </c>
       <c r="E85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="25" t="n">
+      <c r="F85" s="25">
         <v>7</v>
       </c>
       <c r="G85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H85" s="25" t="n">
+      <c r="H85" s="25">
         <v>6</v>
       </c>
       <c r="I85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J85" s="25"/>
+      <c r="J85" s="25">
+        <v>6</v>
+      </c>
       <c r="K85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L85" s="25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L85" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" ht="24" customHeight="1" spans="2:12">
       <c r="B86" s="28"/>
       <c r="C86" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="27" t="n">
+      <c r="D86" s="27">
         <v>7</v>
       </c>
       <c r="E86" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F86" s="27" t="n">
+      <c r="F86" s="27">
         <v>7</v>
       </c>
       <c r="G86" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H86" s="27" t="n">
+      <c r="H86" s="27">
         <v>3</v>
       </c>
       <c r="I86" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J86" s="27"/>
+      <c r="J86" s="27">
+        <v>4</v>
+      </c>
       <c r="K86" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L86" s="27" t="n">
+      <c r="L86" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" ht="24" customHeight="1" spans="2:12">
       <c r="B87" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C87" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="23" t="n">
+      <c r="D87" s="23">
         <v>6</v>
       </c>
       <c r="E87" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F87" s="23" t="n">
+      <c r="F87" s="23">
         <v>6</v>
       </c>
       <c r="G87" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H87" s="23" t="n">
+      <c r="H87" s="23">
         <v>2</v>
       </c>
       <c r="I87" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J87" s="23"/>
+      <c r="J87" s="23">
+        <v>3</v>
+      </c>
       <c r="K87" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L87" s="23" t="n">
+      <c r="L87" s="23">
         <v>2</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" ht="24" customHeight="1" spans="2:12">
       <c r="B88" s="28"/>
       <c r="C88" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="25" t="n">
+      <c r="D88" s="25">
         <v>7</v>
       </c>
       <c r="E88" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F88" s="25" t="n">
+      <c r="F88" s="25">
         <v>7</v>
       </c>
       <c r="G88" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H88" s="25" t="n">
+      <c r="H88" s="25">
         <v>4</v>
       </c>
       <c r="I88" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J88" s="25"/>
+      <c r="J88" s="25">
+        <v>5</v>
+      </c>
       <c r="K88" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L88" s="25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L88" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" ht="24" customHeight="1" spans="2:12">
       <c r="B89" s="28"/>
       <c r="C89" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D89" s="27" t="n">
+      <c r="D89" s="27">
         <v>6</v>
       </c>
       <c r="E89" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F89" s="27" t="n">
+      <c r="F89" s="27">
         <v>6</v>
       </c>
       <c r="G89" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H89" s="27" t="n">
+      <c r="H89" s="27">
         <v>2</v>
       </c>
       <c r="I89" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J89" s="27"/>
+      <c r="J89" s="27">
+        <v>2</v>
+      </c>
       <c r="K89" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L89" s="27" t="n">
+      <c r="L89" s="27">
         <v>2</v>
       </c>
     </row>
@@ -3145,17 +4031,21 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H14"/>
-    <mergeCell ref="B15:H32"/>
-    <mergeCell ref="B33:H37"/>
     <mergeCell ref="B40:L40"/>
-    <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:L41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="K42:L42"/>
+    <mergeCell ref="B66:L66"/>
+    <mergeCell ref="C67:L67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="B41:B42"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="B49:B51"/>
@@ -3163,14 +4053,7 @@
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B66:L66"/>
     <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:L67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B72:B74"/>
     <mergeCell ref="B75:B77"/>
@@ -3178,14 +4061,13 @@
     <mergeCell ref="B81:B83"/>
     <mergeCell ref="B84:B86"/>
     <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B13:H14"/>
+    <mergeCell ref="B15:H32"/>
+    <mergeCell ref="B33:H37"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>